--- a/biology/Botanique/Chroogomphus_helveticus/Chroogomphus_helveticus.xlsx
+++ b/biology/Botanique/Chroogomphus_helveticus/Chroogomphus_helveticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gomphide helvétique
 Le Gomphide helvétique (Chroogomphus helveticus) est un champignon basidiomycète de la famille de Gomphidiaceae. 
@@ -513,10 +525,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce est décrite pour la première fois en 1950 par le mycologue allemand Rolf Singer sous le nom de Gomphidius helveticus[1]. En 1967, elle est transférée dans le genre Chroogomphus par Meinhard Michael Moser (en)[2]. En 2018, la phylogénie des huit espèces est revue, et Chroogomphus helveticus est classé dans un nouveau sous-genre, Siccigomphus[3].
-Deux variétés ont été décrites[4] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce est décrite pour la première fois en 1950 par le mycologue allemand Rolf Singer sous le nom de Gomphidius helveticus. En 1967, elle est transférée dans le genre Chroogomphus par Meinhard Michael Moser (en). En 2018, la phylogénie des huit espèces est revue, et Chroogomphus helveticus est classé dans un nouveau sous-genre, Siccigomphus.
+Deux variétés ont été décrites : 
 Chroogomphus helveticus var. helveticus ;
 Chroogomphus helveticus var. tatrensis.</t>
         </is>
@@ -546,11 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chapeau est d'abord convexe puis plus ou moins aplati et mamelonné, et mesure entre 3 et 5 cm de diamètre. Sa surface est matte et sèche, finement feutrée à squamuleuse, bien que les écailles ne soient pas très visibles par temps humide ou chez les vieux spécimens. Elle est jaune à abricot, souvent teintée de rose ou de violet, et devient orange brique au toucher[3]. La marge est aiguë et enroulée au début. Les lames sont épaisses et moyennement espacées, nettement décurrentes et facilement séparables[5]. Elles sont d'abord subconcolores au chapeau, puis sont teintées de gris par les spores. Le stipe, de la même couleur, est souvent effilé à la base et mesure entre 3 et 6 cm de long. Il est fibrilleux, orné de restes vélaires filamenteux à l'apexet d'un mycélium jaune pâle ou rosâtre à la base[3]. La chair est épaisse au centre du chapeau, ferme et fibreuse dans le pied, de couleur jaunâtre orangée. Sa saveur est douce et son odeur agréable et un peu fruitée[5].
-Espèces proches
-Il ressemble beaucoup au Gomphide rutilant (Chroogomphus rutilus (en)) avec lequel on l'a longtemps confondu[6]. Le genre comprend d'autres espèces assez proches, comme Chroogomphus tomentosus, pour l'instant inconnu en Europe, ou Chroogomphus mediterraneus, qui est plutôt méditerranéen[7]. Il  existe aussi un risque de confusion avec les cortinaires mortels comme le Cortinaire de montagnes (Cortinarius orellanus)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau est d'abord convexe puis plus ou moins aplati et mamelonné, et mesure entre 3 et 5 cm de diamètre. Sa surface est matte et sèche, finement feutrée à squamuleuse, bien que les écailles ne soient pas très visibles par temps humide ou chez les vieux spécimens. Elle est jaune à abricot, souvent teintée de rose ou de violet, et devient orange brique au toucher. La marge est aiguë et enroulée au début. Les lames sont épaisses et moyennement espacées, nettement décurrentes et facilement séparables. Elles sont d'abord subconcolores au chapeau, puis sont teintées de gris par les spores. Le stipe, de la même couleur, est souvent effilé à la base et mesure entre 3 et 6 cm de long. Il est fibrilleux, orné de restes vélaires filamenteux à l'apexet d'un mycélium jaune pâle ou rosâtre à la base. La chair est épaisse au centre du chapeau, ferme et fibreuse dans le pied, de couleur jaunâtre orangée. Sa saveur est douce et son odeur agréable et un peu fruitée.
 </t>
         </is>
       </c>
@@ -576,13 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Gomphide helvétique est une espèce ectomycorhizienne qui pousse dans les forêts de conifères et mixtes. Il a été initialement décrit sous le pin des Alpes (Pinus cembra), puis également trouvé en symbiose avec l'épicéa (Picea abies) et le mélèze (Larix decidua)[3]. Il forme parfois des associations tripartites avec d'autres champignons de l'ordre des Boletales : avec Rhizopogon vulgaris (en) sous épicéa, et avec le Bolet de Sibérie (Suillus sibiricus) et le Bolet larmoyant (Suillus plorans) sous pin des Alpes. Ses hyphes forment alors des suçoirs (haustorium) qui s'insèrent dans les cellules de l'ectomycorhize pour en absorber l'eau et les nutriments[8].
-C'est une espèce européenne qui apparaît surtout en altitude, dans les Alpes, les Carpates et les hautes montagnes des Balkans[3]. Elle fructifie en automne, en septembre et octobre[5].
+          <t>Espèces proches</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ressemble beaucoup au Gomphide rutilant (Chroogomphus rutilus (en)) avec lequel on l'a longtemps confondu. Le genre comprend d'autres espèces assez proches, comme Chroogomphus tomentosus, pour l'instant inconnu en Europe, ou Chroogomphus mediterraneus, qui est plutôt méditerranéen. Il  existe aussi un risque de confusion avec les cortinaires mortels comme le Cortinaire de montagnes (Cortinarius orellanus).
 </t>
         </is>
       </c>
@@ -608,12 +627,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Gomphide helvétique est une espèce ectomycorhizienne qui pousse dans les forêts de conifères et mixtes. Il a été initialement décrit sous le pin des Alpes (Pinus cembra), puis également trouvé en symbiose avec l'épicéa (Picea abies) et le mélèze (Larix decidua). Il forme parfois des associations tripartites avec d'autres champignons de l'ordre des Boletales : avec Rhizopogon vulgaris (en) sous épicéa, et avec le Bolet de Sibérie (Suillus sibiricus) et le Bolet larmoyant (Suillus plorans) sous pin des Alpes. Ses hyphes forment alors des suçoirs (haustorium) qui s'insèrent dans les cellules de l'ectomycorhize pour en absorber l'eau et les nutriments.
+C'est une espèce européenne qui apparaît surtout en altitude, dans les Alpes, les Carpates et les hautes montagnes des Balkans. Elle fructifie en automne, en septembre et octobre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chroogomphus_helveticus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chroogomphus_helveticus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Gomphide helvétique est comestible, mais jugé sans valeur[6]. Il aurait tendance à noircir les sauces à cause de sa sporée foncée[5]. En Suisse, l'espèce fait partie de la liste des champignons admis comme champignons comestibles établie par ordonnance du Département fédéral de l'intérieur[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Gomphide helvétique est comestible, mais jugé sans valeur. Il aurait tendance à noircir les sauces à cause de sa sporée foncée. En Suisse, l'espèce fait partie de la liste des champignons admis comme champignons comestibles établie par ordonnance du Département fédéral de l'intérieur.
 </t>
         </is>
       </c>
